--- a/vbai-fhir/ValueSet-acoustic-task-status.xlsx
+++ b/vbai-fhir/ValueSet-acoustic-task-status.xlsx
@@ -224,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-acoustic-task-status.xlsx
+++ b/vbai-fhir/ValueSet-acoustic-task-status.xlsx
@@ -224,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-acoustic-task-status.xlsx
+++ b/vbai-fhir/ValueSet-acoustic-task-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -224,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-acoustic-task-status.xlsx
+++ b/vbai-fhir/ValueSet-acoustic-task-status.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Acoustic Task St" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Status Codes for" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/vbai-fhir/ValueSet-acoustic-task-status.xlsx
+++ b/vbai-fhir/ValueSet-acoustic-task-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/vbai-fhir/ValueSet-acoustic-task-status.xlsx
+++ b/vbai-fhir/ValueSet-acoustic-task-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
